--- a/results/geo/geo_metadata.xlsx
+++ b/results/geo/geo_metadata.xlsx
@@ -159,13 +159,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">"Firstname,Initial,Lastname".
-Example: "John,H,Smith" or "Jane,Doe". 
-Each contributor on a separate line, add as many contributor lines as required.</t>
+          <t xml:space="preserve">[optional] 
+If you submit a matrix table containing processed data for all samples, include the file name here.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,12 +175,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[optional] 
-If you submit a matrix table containing processed data for all samples, include the file name here.</t>
+          <t xml:space="preserve">An arbitrary and unique identifier for each sample. This information will not appear in the final records and is only used as an internal reference. Each row represents a GEO Sample record.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,11 +190,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">An arbitrary and unique identifier for each sample. This information will not appear in the final records and is only used as an internal reference. Each row represents a GEO Sample record.</t>
+          <t xml:space="preserve">[Optional]  Describe the conditions that were used to grow or maintain organisms or cells prior to extract preparation.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,11 +205,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[Optional]  Describe the conditions that were used to grow or maintain organisms or cells prior to extract preparation.</t>
+          <t xml:space="preserve">[Optional] Describe the treatments applied to the biological material prior to extract preparation.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,11 +220,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[Optional] Describe the treatments applied to the biological material prior to extract preparation.</t>
+          <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,26 +235,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
+          <t xml:space="preserve">Describe the library construction protocol.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Describe the library construction protocol.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0">
+    <comment ref="C85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="0">
+    <comment ref="D85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -651,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E75" authorId="0">
+    <comment ref="E85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="F22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -691,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F75" authorId="0">
+    <comment ref="F85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0">
+    <comment ref="H22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0">
+    <comment ref="J22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -779,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0">
+    <comment ref="K22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0">
+    <comment ref="L22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -831,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0">
+    <comment ref="N22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="0">
+    <comment ref="P22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -882,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="Q22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0">
+    <comment ref="R22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0">
+    <comment ref="S22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="0">
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -950,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U23" authorId="0">
+    <comment ref="U22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -967,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="0">
+    <comment ref="V22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W23" authorId="0">
+    <comment ref="W22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1001,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X23" authorId="0">
+    <comment ref="X22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y23" authorId="0">
+    <comment ref="Y22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z23" authorId="0">
+    <comment ref="Z22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA23" authorId="0">
+    <comment ref="AA22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB23" authorId="0">
+    <comment ref="AB22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC23" authorId="0">
+    <comment ref="AC22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1091,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="268">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -1185,31 +1168,28 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">MARCO+ lymphatic endothelial cells sequester arthritogenic alphaviruses in the draining lymph node and limit viral dissemination</t>
+    <t xml:space="preserve">Chikungunya virus infection disrupts lymph node lymphatic endothelial cell composition and function via MARCO</t>
   </si>
   <si>
     <t xml:space="preserve">summary</t>
   </si>
   <si>
-    <t xml:space="preserve">While viremia in the vertebrate host is a critical determinant of arboviral reservoir competency, transmission efficiency, and disease severity, immune mechanisms that control arboviral viremia are poorly defined. Here, we identify critical roles for the scavenger receptor MARCO in controlling viremia during arthritogenic alphavirus infections in mice. Following subcutaneous inoculation, alphavirus particles drain via the lymph and are rapidly captured by MARCO+ lymphatic endothelial cells (LECs) in the draining lymph node (dLN), limiting viral spread to the bloodstream. Upon reaching the bloodstream, MARCO-expressing Kupffer cells in the liver remove circulating alphavirus particles, limiting viremia and further viral dissemination. MARCO-mediated accumulation of alphavirus particles in the lymph node and liver has important implications as viremia and viral tissue burdens are elevated in MARCO-/- mice and disease outcomes are more severe. These findings uncover a previously unrecognized pathogen scavenging role for LECs and improve our mechanistic understanding of viremia control during arboviral infections.</t>
+    <t xml:space="preserve">Infection with chikungunya virus (CHIKV) causes disruption of draining lymph node (dLN) organization, including paracortical relocalization of B cells, loss of the B cell-T cell border, and lymphocyte depletion that is associated with infiltration of the LN with inflammatory myeloid cells. Here, we find that during the first 24 h of infection, CHIKV RNA accumulates in MARCO-expressing lymphatic endothelial cells (LECs) in both the floor and medullary LN sinuses. The accumulation of viral RNA in the LN was associated with a switch to an antiviral and inflammatory gene expression program across LN stromal cells, and this inflammatory response, including recruitment of myeloid cells to the LN, was accelerated by CHIKV-MARCO interactions. As CHIKV infection progressed, both floor and medullary LECs diminished in number, suggesting that these cells may be functionally impaired. Consistent with this idea, we find that antigen acquisition by LECs, a key function of LN LECs during infection and immunization, was reduced during pathogenic CHIKV infection.</t>
   </si>
   <si>
     <t xml:space="preserve">overall design</t>
   </si>
   <si>
-    <t xml:space="preserve">Identification of cells harboring CHIKV RNA using single-cell RNA sequencing.</t>
+    <t xml:space="preserve">Identification and characterization of cells harboring CHIKV RNA using single-cell RNA sequencing.</t>
   </si>
   <si>
     <t xml:space="preserve">contributor</t>
   </si>
   <si>
-    <t xml:space="preserve">Kathryn S. Carpentier</t>
+    <t xml:space="preserve">Cormac J. Lucas</t>
   </si>
   <si>
     <t xml:space="preserve">Ryan M. Sheridan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cormac J. Lucas</t>
   </si>
   <si>
     <t xml:space="preserve">Jay R. Hesselberth</t>
@@ -1425,7 +1405,7 @@
     <t xml:space="preserve">raw file</t>
   </si>
   <si>
-    <t xml:space="preserve">mock_1</t>
+    <t xml:space="preserve">Mock_1</t>
   </si>
   <si>
     <t xml:space="preserve">mock-1</t>
@@ -1446,13 +1426,13 @@
     <t xml:space="preserve">Single-cell RNA-seq library from the Next GEM single-cell 3′ GEM library and gel bead kit v3.1 (1000128)</t>
   </si>
   <si>
-    <t xml:space="preserve">M1_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_matrix.mtx.gz</t>
+    <t xml:space="preserve">2021-04-16_M1_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_M1_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_M1_matrix.mtx.gz</t>
   </si>
   <si>
     <t xml:space="preserve">morrison_count_matrix.tsv.gz</t>
@@ -1461,48 +1441,24 @@
     <t xml:space="preserve">morrison_metadata.tsv.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M1_1_S1_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_1_S1_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M1_1_S1_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M1_1_S1_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M1_2_S2_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_2_S2_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M1_2_S2_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M1_2_S2_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M1_3_S3_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_3_S3_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M1_3_S3_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M1_3_S3_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M1_4_S4_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1_4_S4_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M1_4_S4_L002_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -1515,19 +1471,13 @@
     <t xml:space="preserve">mock-2</t>
   </si>
   <si>
-    <t xml:space="preserve">M2_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_matrix.mtx.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_1_S5_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_1_S5_L001_R2_001.fastq.gz</t>
+    <t xml:space="preserve">2021-04-16_M2_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_M2_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_M2_matrix.mtx.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M2_1_S5_L002_R1_001.fastq.gz</t>
@@ -1536,166 +1486,61 @@
     <t xml:space="preserve">M2_1_S5_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M2_2_S6_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_2_S6_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M2_2_S6_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M2_2_S6_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M2_3_S7_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_3_S7_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M2_3_S7_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M2_3_S7_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">M2_4_S8_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_4_S8_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">M2_4_S8_L002_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">M2_4_S8_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">mock_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_matrix.mtx.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_1_S9_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_1_S9_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_1_S9_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_1_S9_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_2_S10_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_2_S10_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_2_S10_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_2_S10_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_3_S11_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_3_S11_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_3_S11_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_3_S11_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_4_S12_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_4_S12_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_4_S12_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3_4_S12_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">chikv_1</t>
   </si>
   <si>
     <t xml:space="preserve">chikv-1</t>
   </si>
   <si>
-    <t xml:space="preserve">A1_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_matrix.mtx.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_1_S13_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_1_S13_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_1_S13_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_1_S13_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_2_S14_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_2_S14_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_2_S14_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_2_S14_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_3_S15_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_3_S15_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_3_S15_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_3_S15_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_4_S16_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_4_S16_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_4_S16_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1_4_S16_L002_R2_001.fastq.gz</t>
+    <t xml:space="preserve">2021-04-16_AF1_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_AF1_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_AF1_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_1_S9_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_1_S9_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_2_S10_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_2_S10_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_3_S11_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_3_S11_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_4_S12_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_4_S12_L002_R2_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">chikv_2</t>
@@ -1704,124 +1549,184 @@
     <t xml:space="preserve">chikv-2</t>
   </si>
   <si>
-    <t xml:space="preserve">A2_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_matrix.mtx.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_1_S17_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_1_S17_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_1_S17_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_1_S17_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_2_S18_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_2_S18_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_2_S18_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_2_S18_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_3_S19_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_3_S19_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_3_S19_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_3_S19_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_4_S20_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_4_S20_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_4_S20_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2_4_S20_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chikv_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chikv-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_barcodes.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_features.tsv.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_matrix.mtx.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_1_S21_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_1_S21_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_1_S21_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_1_S21_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_2_S22_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_2_S22_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_2_S22_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_2_S22_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_3_S23_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_3_S23_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_3_S23_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_3_S23_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_4_S24_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_4_S24_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_4_S24_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3_4_S24_L002_R2_001.fastq.gz</t>
+    <t xml:space="preserve">2021-04-16_AF2_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_AF2_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16_AF2_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_1_S13_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_1_S13_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_2_S14_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_2_S14_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_3_S15_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_3_S15_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_4_S16_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_4_S16_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mock_1_enriched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-cell RNA-seq library from the Next GEM single-cell 3′ GEM library and gel bead kit v3.1 (1000128), libraries enriched for molecules aligning to the CHIKV genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M1_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M1_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M1_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_1_S9_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_1_S9_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_2_S10_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_2_S10_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_3_S11_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_3_S11_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_4_S12_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1_4_S12_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mock_2_enriched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M2_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M2_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_M2_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_1_S13_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_1_S13_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_2_S14_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_2_S14_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_3_S15_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_3_S15_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_4_S16_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_4_S16_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chikv_1_enriched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF1_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF1_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF1_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_1_S17_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_1_S17_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_2_S18_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_2_S18_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_3_S19_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_3_S19_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_4_S20_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF1_4_S20_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chikv_2_enriched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF2_barcodes.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF2_features.tsv.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-16_AF2_matrix.mtx.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_1_S21_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_1_S21_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_2_S22_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_2_S22_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_3_S23_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_3_S23_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_4_S24_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF2_4_S24_L001_R2_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve"># Protocols applicable to only a subset of Samples can be included as additional columns of the SAMPLES section above instead.</t>
@@ -1843,7 +1748,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WT C57BL/6 mice were mock-inoculated (n = 3) or inoculated with 10</t>
+      <t xml:space="preserve">WT C57BL/6 mice were mock-inoculated (n = 2) or inoculated with 10</t>
     </r>
     <r>
       <rPr>
@@ -1862,14 +1767,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> PFU of CHIKV (n = 3) in the left rear footpad.</t>
+      <t xml:space="preserve"> PFU of CHIKV (n = 2) in the left rear footpad.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">extract protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">At 24 hpi the draining popliteal lymph node from mock- or CHIKV-inoculated mice were pooled into individual replicates (3 replicates; LNs from 5 mice pooled per replicate). Lymph nodes were mechanically homogenized using a 22G needle in Click’s medium (Irvine Scientific, 9195) supplemented with 5 mg/mL liberase DL (Roche, 05401160001) and 2.5 mg/mL DNase (Roche 10104159001) for 1 h at 37C. After incubation, digested tissues were clarified by passing through a 100 μm cell strainer. Cell suspensions were enriched for CD45- cells by labeling cells with PE-conjugated anti-mouse CD45 (30-F11), CD140A (APA5), and Ter119 (Ter119) monoclonal antibodies and subsequent depletion of PE-labeled cells using Miltenyi anti-PE microbeads (130-048-801) and Miltenyi MACS LS (130-042-401) columns according to the manufacturer’s instructions with the following modifications: (1) we used 25% of the recommended volume of anti-PE microbeads and (2) we subjected the CD45- enriched cell fraction to a second MACS LS column. All cell suspensions post-column enrichment were enumerated using a hemocytometer. Cell fractions throughout the procedure were analyzed for PE-labeled cell depletion and enrichment of CD45- cells by flow cytometry.</t>
+    <t xml:space="preserve">At 8 h post-infection the draining popliteal lymph node from mock- or CHIKV-inoculated mice was pooled into individual replicates (2 replicates; LNs from 5 mice pooled per replicate). Lymph nodes were mechanically homogenized using a 22G needle in Click’s medium (Irvine Scientific, 9195) supplemented with 5 mg/mL liberase DL (Roche, 05401160001) and 2.5 mg/mL DNase (Roche 10104159001) for 1 h at 37°C. After incubation, digested LNs were clarified by passing through a 100-μm cell strainer. Cell suspensions were enriched for CD45- cells by labeling cells with PE-conjugated anti-mouse CD45 (30-F11), CD140A (APA5), and Ter119 (Ter119) monoclonal antibodies and subsequent depletion of PE-labeled cells using Miltenyi anti-PE microbeads (130-048-801) and Miltenyi MACS LS (130-042- 401) columns according to the manufacturer’s instructions with the following modifications: (i) We used 25% of the recommended volume of anti-PE microbeads, and (ii) we subjected the CD45- enriched cell fraction to a second MACS LS column. All cell suspensions post-column enrichment were enumerated using a hemacytometer. Cell fractions throughout the procedure were analyzed for PE-labeled cell depletion and enrichment of CD45- cells by flow cytometry.</t>
   </si>
   <si>
     <t xml:space="preserve">library construction protocol</t>
@@ -1896,7 +1801,7 @@
     <t xml:space="preserve">data processing step</t>
   </si>
   <si>
-    <t xml:space="preserve">Single-cell RNA-seq libraries were processed using the 10X Genomics cellranger software (5.0.1). Analysis was performed using the R package Seurat (4.0.0). Cell type identification was performed with clustifyr (1.0.0) using references built from published data.</t>
+    <t xml:space="preserve">Single-cell RNA-seq libraries were processed using the 10X Genomics cellranger software (5.0.1). Analysis was performed using the R package Seurat (4.2.0).</t>
   </si>
   <si>
     <t xml:space="preserve">genome build</t>
@@ -1923,64 +1828,82 @@
     <t xml:space="preserve">TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">fdcdecb345e7fec71fb19227377d059f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e63830f49c39c27813313f7930b5f7c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa8c40c8e0651b6410cc6d545afb51cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">682bc0bf2df4ef578639b922e65397ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d3e2253d06e32e350e6f980e803481eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90f3fe2dd727ed1958c74aa37357d1ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151418c93f6083dbb0e84a0ae6a1ae1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c4cdfd13c2531707c488832344ed46e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df12965adcb84276a97963ea3b21060f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee8e97f2d1f8cef67856bb183b933480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9e61ec4e33b28b692087dfadcf78172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900faf15727eea70dc37fb900dbb2077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621fb33a72085225cce1634f3b733ddb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72b37aa6a509c06988537d65ea7b6340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0afa5c53fe40602098c1a5aa62c6d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab9c3441059af335147dfc01598710b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a5fcff163bc2191c9183c39f679e2f33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ccafd4389df1a7b13baec1f13709e8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2429ba0ab3490645af9db85c4e8e85ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70d52715c324cb3ba6003a0a6a3d96bd</t>
+    <t xml:space="preserve">8ad4e20b887447b82f94ac956cbc6c8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4082be35d1c0b4c81e65cf7f00a386a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93b2991c809b68e057df759bf64665bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aed40ad744006ca25c16a5e5da407578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">491dafc572535d8d4eab1f713e9b2a08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46f2cd1bdbb9cf95335658296494cb53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41972c1f2a3a6a63a60ddd6a4b1a3fcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27ec05d7b1dc222e293d6cc75b5d9288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597c12fe50742fc3be98f243e00c4c0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">576bdfa9c398e182e1fb26b6a203a9a8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32f6c95c7cae1714b556812dd260908d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215b197524effd7737584cd042e46f2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76ed6dc219f4c6d71a7bb3221121e8dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23fd6d5b15c25f64ad0f838b16adc8e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b57eadbc722271bf0108c0fb555cb5eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c3d094f42b339afc471b6b6b0322797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94ccbc59a9a52f61476366202ae03560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5c047dd6dbe2bd554890bccbf5b36af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a779366d8cb46cac34c51f6c4d833d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa5bfe2c85e674148417c1e9bb036333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a1d72559de8a1b4fcf34a913fb18170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b41465452c31dc8f7640006e054dc0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3de6e7e465c5362065f1c4bdddb4ebc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4f85e0c6197a77833e6252f5e4a3fec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de7dfe5145f32dee136c8bb66ae78462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550751abb5ff781546ce10fe4a1d621b</t>
   </si>
   <si>
     <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section above, provide additional information below.</t>
@@ -2001,7 +1924,7 @@
     <t xml:space="preserve">fastq</t>
   </si>
   <si>
-    <t xml:space="preserve">d2de08c408c16c97712e37531c0db528</t>
+    <t xml:space="preserve">cabe5bbc29029222bfe78af57528d87d</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina NovaSeq 6000</t>
@@ -2010,289 +1933,193 @@
     <t xml:space="preserve">paired-end</t>
   </si>
   <si>
-    <t xml:space="preserve">d5a30e2e39b179f20e47aa22a2160136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31bd00811bc94af2a8139afad640cb51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1dd0021fcf882f6e0b8d99b6b7879ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d34855144009c61547d57c1346a3c395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8d0001467c5376c04882e5150327114d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0b821272566f0109d443fe6bb2f5a09b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e436e3eb33485b6adf254b0872e8f028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df69d96459ad5624c57b19a14baad227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac76c0dad50979e17d5aa3c442a4521e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3a88b22dc636ae7d6025c1e9836ac1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e9a78c4262086b3df827be1126af3a05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59304dcc04bf87c93c19cbe038d15a60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dba44b2bdf8f68ecc2ef293a5250bfb0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8aee03f030fc254891cefcedc8ccf5c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a46ff3daa76ea0d727f6e6f58c8bb4a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58d93cb67e5785e1316a765d45808cba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03df7fcac6b1df06d896b6be3ae20a88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05b040d97b0a06bdcb7c463a3447cc23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f2ca08b98172c4163f8519e78b14b97f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f52da6452b39d76fb96caebbddec8e1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87651216bc90c158fd6bb411268a6a9b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df1010d69e9675474c6e8c836b4c45c7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4a8da03c3e89e4a2276da2a65c31c20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163a68c1ef9843b4cbb5f43d950407ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b8be34f2ace70dfc494cb8c99d46388e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71073716ea99489061f9feec3c940567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cc6d43dfcc1069eeac1dd5331b01fdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec7e37878d1820ee35e3b092ab143504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d077ad26850cf834ef90dceeb30f4e13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9c87e38406352c09dc8b7971b13cea89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">047915931358c3ffb7b2c7060d88cbd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5e3c8120a97d33b831e76362df483337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7b6b1cca13b67d92f8d54c59cf0178b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6936f3ca8997e85184e7ad37813febb3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d6d13f5c53f040fff991b4ae56107c4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0132e9dd01cb7f47c73e11f2f50730fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e5abb995e6658eae0566571ef520885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20638effe581c52edf97bd6595899b49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2d18b5ddb3c331104eaed4d9e412d470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9cff8923accc789980f88ebb0f1f7a80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9252abe3288e7ab2bce849136a27d688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c04342319136f4a74f1f5a88f73e5836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2719f05672929464a5e496950685687c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc33f645bf1d08facd521685fd9dbb78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ccc5700f562323665a15dd9d20e6150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9d8bee0220ba582bcf8c9d2f1ca89f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74bd7caa693cfa1ea2960206b4f7459b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5723e39d4a11b1fef08925db472e1ea1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8961aeae58d862a0b6a9f23806572fe8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">855eddc0270388bdeadba3d86d206721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f23b7051627fd1c5dda057c13a16ef02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7009d0d34f9d125d6ffe3147786bf239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ad122b648d222341f74d6d2ae418873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3370f0b19fd7c24b738228751f18db94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2cd714e97be9fe4b0d3f71f44472efa0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445d49bd80f80968a25c058601090b35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f0537c89e8cd6e57aadf9ca3653e1f30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41607f1d0a633c6a7c05f0c8530c1d58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed920a0c8bd5c6abc00da4b0bdbc4725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01cf262508ed53ec4fafb7d149ded22a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7f708976e3f846a871ea5eb06b43aaa3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432dc9fa56318817d59d71c382cfbe34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283b3a1068a4112be28dc0de9595e078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910282e3f39f9823c320549be938a3cb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803febb3d7115827a93b9cfb6e7660a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540086c6b65460aad5ff298513f6a525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">524d4d1dbc7161cffb5ea4c085e8ee07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85bfaf7c0a5bc3ee15779ea323efe69c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">942a5e4d2e8c4bf3c2f211d9ff2cdc74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d1bc451afd35791f1e1520743e5ada8d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90bd60873d8e0bad791cef5589af28ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e19e19d1917d1044c91eb21a77c9e5cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f571b94a1655de1942b27ac0c5e1900b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e0cd71251fa3141696096865f76799a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0822d1fc93e746f222e993139544b547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ae08a683cad591ba514cf6634350159e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e4adf3a26313115452e70b1437258ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e8d822296f0d93417cef1aa7177922a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999e7615862e08918f62e165ef40d19d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac7e363f21c22e1b210a83b12e739419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a03ff930578258a88468891115e95c37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e7fee9319a8c2ea2ddcc159d412a460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0643e61ab38b908faf5c8d6bf804f43e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532e713d3a6b1dcd6e5367416df5fe1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e04153f64035366f5224b87f0e7073de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecfa6dd66824222925fe40bd9ff7b467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">992418aef37af4e0a491fa5a720455da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3be6553f7c782dc89694c66f23eebfa4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a729fb4e45c7dee68647d530d6d53afc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61b28489ca7dc3e90ffc23fae1aac892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d5f4c625f50a682cb82f8c2e392bf132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">073f67d9a96d6300f14c4465bd98d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550a480af1491864f5265796ce1ad60b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ae988d27363a61531dbff9612c40b467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d58f20cc32fb6ca9ac1738b5b1c21cbf</t>
+    <t xml:space="preserve">87115985cb6a89ae6a42113166dfe1ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70194f027fb09c43a1ec8d92b0b173c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a987a29433e30da8b30a56b7fbe793e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d3ffbf3ef1e1814b15c9d7f9e2e4348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7de774d45160750f58155d6b2c48bb67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3c58ea594a5df53638131d8bfae860bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a57118782aa0fc704a95588b46207bb0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4357cae997641f9a121674afa2d8ce4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33fcfb03d7c7a90affbbddc9bf6ce463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72ee353225d3d275e0198b7a07b8a691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e767c9348c669d9f4a1e41e7a86561e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f78ab1cf5b8d2bb3eca90b3073bc38f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3b8cca43ca720624ea162e778a05d8d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d77e907a1d25d80a9b9bca847c1cdbf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e215cecace42581a57e86148fbcf5052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3b25b8b99a38696bac1be275f2d8fdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad89818418e87dd7acb89fd1d88a2f1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a84bdae825e060eafc0e7d047b7df3ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eba843e0f3c7a50aaa5a40f9c5c4792a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08e3de9c09e980b19a82224138757242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71ec10134653ac357386965b9b200a6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9d78b9e95d273742435e9011b4660cfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d5632c5f820db14049bacbc7d4b49f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93f8eb986802c1b6ae1cc68c6d42da65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c63cec0d5b13a67ff9601f86d672ca1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b18b9d21ddb1bb7cce36a9b236a37714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7f5f218071dbb9ed6408479d88d0fb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f75da6ab778484eca1069000af28238b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6dd1974f8ea797397ec1ce2d35c1513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937a789a38c7c4fbe564fa3bebdc361f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37239ca46193efd359f338eb225fabda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9084e08b2e84db95f8fc7fff6d10a68b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9519eb7cc91d58a861380c56f75421ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d70278597f180c8747250b667c44b3b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92d4cbbe2bb54388c17ea8810351d19a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1d9bc57183ab6c11c40415f9d305b47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea159306dd051bc6e8efac5b883565df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8dc023f252ec9cb1a55f65fc983f94bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16530afe0313437bd8d2652f6d446c9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df561dbb7f5adca6e52ac40205f19404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34ab36078967d39db148a0a784aed3b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb7add685955346fb0756bce7f75e09c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7886c6240bb40bf86d619df5acc6b7ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c475b26b70cd0a7a5e2871498f448c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2241ef834a1096e18c2f637ffd1d4ce9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143e3ab1b91e4473828f3b77c0f741e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6cbb28bb517e0786447864a273b8543c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f18c4e98ddfc7f17b8ef9ca95012bf67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40ee61e3d5aa835b27cd5875a2b8fde9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444604e9c1ca5448237944802b4e95dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c722b47ae5e837c207d34882dac8871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7e0685405ad5e17a8d13a28e5627031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239321aba1789140ee96603324ad7a43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978503378135e8f83faf4859ca8461b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">039b7257fcd3938ab33f67aadd211d2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d63ac0adede762415420acb9e0a7195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7fa4f6371451c5babd52df0633d2251d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c6bc81e657f5328ff9f039333c2e52c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c949a4c967e9f9659216dcde786a921c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3dd54a3b2376fe01145a50c1f9195654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b79aaf7b323f83f9cf1f0f92586288b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e81c8944a1a7895329128a7639889c23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95dca8542fa30f8664e23aca66cadf4e</t>
   </si>
   <si>
     <t xml:space="preserve"># For paired-end experiments, list the 2 (or more) fastq files from the same run. For SOLiD experiments, list the 4 file names (include "file name 3" and "file name 4" columns).</t>
@@ -2582,14 +2409,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="28.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="28.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="28.64"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +2674,11 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2867,9 +2692,7 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -2884,8 +2707,10 @@
       <c r="S17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -2898,133 +2723,184 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
     </row>
     <row r="20" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="J22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="O22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>33</v>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -3032,606 +2908,549 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I24" s="19" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="M24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z24" s="1" t="s">
+      <c r="N24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="O24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="P24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="Q24" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="R24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="H25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I25" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="N25" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="X25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y25" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="L26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="O26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="P26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="Q26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="20" t="s">
+      <c r="R26" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="S26" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="T26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="U26" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="X26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="R27" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="S27" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="T27" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="V27" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y27" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA27" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB27" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="N28" s="20" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="X28" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y28" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z28" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="N29" s="20" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="V29" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="W29" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="X29" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y29" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U30" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+    </row>
+    <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C33" s="21"/>
       <c r="J33" s="21"/>
@@ -3646,11 +3465,11 @@
       <c r="S33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>172</v>
+      <c r="A34" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C34" s="21"/>
       <c r="J34" s="21"/>
@@ -3666,10 +3485,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C35" s="21"/>
       <c r="J35" s="21"/>
@@ -3685,73 +3504,75 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" s="13" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>179</v>
+      <c r="A37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" s="13" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3768,7 +3589,7 @@
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3784,8 +3605,10 @@
       <c r="S47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -3798,2418 +3621,2089 @@
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
     </row>
-    <row r="49" s="13" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" s="11" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" s="23" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="0"/>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" s="13" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" s="23" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>45</v>
+      <c r="A53" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>41</v>
+      <c r="A54" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>42</v>
+      <c r="A55" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E57" s="0"/>
     </row>
     <row r="58" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E64" s="0"/>
     </row>
     <row r="65" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>108</v>
+      <c r="A65" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>127</v>
+      <c r="A66" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>190</v>
+      <c r="A67" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="19"/>
+        <v>179</v>
+      </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>129</v>
+      <c r="A68" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>190</v>
+      <c r="A69" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="19"/>
+        <v>181</v>
+      </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>190</v>
+      <c r="A70" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="19"/>
+        <v>182</v>
+      </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>190</v>
+      <c r="A71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="0"/>
     </row>
     <row r="72" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>211</v>
-      </c>
+      <c r="A72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="0"/>
+    </row>
+    <row r="73" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="0"/>
     </row>
     <row r="74" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
+      <c r="A74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="0"/>
+    </row>
+    <row r="75" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>215</v>
-      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="0"/>
     </row>
     <row r="76" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="0"/>
+    </row>
+    <row r="77" s="11" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="0"/>
     </row>
     <row r="78" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>216</v>
+        <v>44</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="0"/>
     </row>
     <row r="79" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="0"/>
     </row>
     <row r="80" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="0"/>
     </row>
     <row r="81" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="0"/>
     </row>
     <row r="82" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-    </row>
-    <row r="83" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="A82" s="1"/>
+      <c r="C82" s="0"/>
+    </row>
+    <row r="83" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="84" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-    </row>
-    <row r="85" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+      <c r="A84" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="86" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E86" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
     </row>
     <row r="87" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E87" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
     </row>
     <row r="88" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E88" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
     <row r="89" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E89" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
     </row>
     <row r="90" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E90" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
     <row r="91" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E91" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
     </row>
     <row r="92" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E92" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
     <row r="93" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E93" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
     <row r="94" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E94" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20" t="s">
-        <v>70</v>
+    <row r="95" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B95" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C95" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E98" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E102" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>246</v>
-      </c>
       <c r="D103" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E103" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20" t="s">
-        <v>79</v>
+        <v>199</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>247</v>
+        <v>196</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E104" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>219</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="20" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E105" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="20" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E106" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E107" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>251</v>
+        <v>196</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E108" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>89</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>252</v>
+        <v>196</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E109" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>90</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>253</v>
+        <v>196</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E110" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>91</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>254</v>
+        <v>196</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E111" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>255</v>
+        <v>196</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E112" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>93</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>256</v>
+        <v>196</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E113" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>94</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E114" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>258</v>
+        <v>196</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E115" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>259</v>
+        <v>196</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E116" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E117" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="20" t="s">
-        <v>98</v>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>261</v>
+        <v>196</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E118" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="20" t="s">
-        <v>99</v>
+        <v>199</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>262</v>
+        <v>196</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E119" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="120" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20" t="s">
-        <v>100</v>
+        <v>199</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>263</v>
+        <v>196</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E120" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="20" t="s">
-        <v>101</v>
+        <v>199</v>
+      </c>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>264</v>
+        <v>196</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E121" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20" t="s">
-        <v>102</v>
+        <v>199</v>
+      </c>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>265</v>
+        <v>196</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E122" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="20" t="s">
-        <v>103</v>
+        <v>199</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>266</v>
+        <v>196</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E123" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="124" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="20" t="s">
-        <v>109</v>
+        <v>199</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>267</v>
+        <v>196</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E124" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="20" t="s">
-        <v>110</v>
+        <v>199</v>
+      </c>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>268</v>
+        <v>196</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E125" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="126" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20" t="s">
-        <v>111</v>
+        <v>199</v>
+      </c>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>269</v>
+        <v>196</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E126" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="127" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="20" t="s">
-        <v>112</v>
+        <v>199</v>
+      </c>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>270</v>
+        <v>196</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E127" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>219</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="20" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E128" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="20" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E129" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>273</v>
+        <v>196</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E130" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>116</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>274</v>
+        <v>196</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E131" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>117</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>275</v>
+        <v>196</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E132" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>118</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>276</v>
+        <v>196</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E133" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>277</v>
+        <v>196</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E134" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>278</v>
+        <v>196</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E135" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>121</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>279</v>
+        <v>196</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E136" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>122</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>280</v>
+        <v>196</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E137" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>281</v>
+        <v>196</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E138" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>124</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>282</v>
+        <v>196</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E139" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E140" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E141" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E142" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E143" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E144" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E145" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E146" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E147" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E148" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E149" s="11" t="n">
         <v>151</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E150" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E152" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E153" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E154" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E155" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="157" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E157" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E158" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E159" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="11" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E160" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-    </row>
-    <row r="161" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E161" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="162" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E162" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E163" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="164" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E164" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="165" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E165" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="166" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E166" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="167" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E167" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="168" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E168" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E169" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="170" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E170" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="171" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E171" s="11" t="n">
-        <v>151</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="174" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="175" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="176" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C172" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C176" s="11" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="177" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C177" s="11" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="178" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C178" s="11" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="179" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C179" s="11" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="180" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C180" s="11" t="n">
         <v>325</v>
@@ -6217,10 +5711,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C181" s="11" t="n">
         <v>325</v>
@@ -6228,10 +5722,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C182" s="11" t="n">
         <v>325</v>
@@ -6239,10 +5733,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C183" s="11" t="n">
         <v>325</v>
@@ -6250,10 +5744,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C184" s="11" t="n">
         <v>325</v>
@@ -6261,433 +5755,85 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C185" s="11" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C186" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C187" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C188" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C189" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C190" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C191" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C192" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C193" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C195" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C196" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C197" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C198" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C199" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C200" s="11" t="n">
-        <v>325</v>
-      </c>
+      <c r="C200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C201" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C202" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C203" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C204" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C205" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C206" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C207" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C208" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C209" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C210" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C212" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C213" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C214" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C215" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C216" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C217" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C218" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C219" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C220" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C221" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C222" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C223" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
+      <c r="C201" s="11"/>
+    </row>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6730,7 +5876,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
